--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Person</t>
   </si>
@@ -439,7 +439,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,8 +529,15 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Person</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>8h</t>
+  </si>
+  <si>
+    <t>5h</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -544,40 +547,75 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>

--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Person</t>
   </si>
@@ -44,12 +44,15 @@
   <si>
     <t>5h</t>
   </si>
+  <si>
+    <t>3h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,7 +122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -161,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,27 +196,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,24 +230,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,14 +405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="56.5" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -455,7 +422,7 @@
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -470,7 +437,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>1</v>
@@ -485,7 +452,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>4</v>
@@ -500,7 +467,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -515,7 +482,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>1</v>
@@ -530,7 +497,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>1</v>
@@ -545,7 +512,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -560,7 +527,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>1</v>
@@ -575,7 +542,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>4</v>
@@ -590,7 +557,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>5</v>
@@ -605,7 +572,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>1</v>
@@ -620,23 +587,37 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -644,7 +625,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -652,7 +633,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -660,7 +641,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -668,7 +649,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -676,7 +657,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -684,7 +665,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -692,7 +673,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -700,7 +681,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -708,7 +689,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -716,7 +697,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -724,7 +705,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -732,7 +713,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -740,7 +721,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -748,7 +729,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -756,7 +737,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -764,7 +745,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -772,7 +753,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -780,7 +761,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -788,7 +769,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -796,7 +777,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -804,7 +785,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -812,7 +793,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -820,7 +801,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -828,7 +809,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -836,7 +817,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -844,7 +825,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -852,7 +833,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -860,7 +841,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -868,7 +849,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -876,7 +857,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -884,7 +865,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -892,7 +873,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -900,7 +881,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -908,7 +889,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -916,7 +897,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -924,70 +905,70 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="5"/>
       <c r="C59" s="3"/>
@@ -995,7 +976,7 @@
       <c r="E59" s="4"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="5"/>
       <c r="C60" s="3"/>
@@ -1003,7 +984,7 @@
       <c r="E60" s="4"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="5"/>
       <c r="C61" s="3"/>
@@ -1011,7 +992,7 @@
       <c r="E61" s="4"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="5"/>
       <c r="C62" s="3"/>
@@ -1019,7 +1000,7 @@
       <c r="E62" s="4"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="5"/>
       <c r="C63" s="3"/>
@@ -1027,7 +1008,7 @@
       <c r="E63" s="4"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="5"/>
       <c r="C64" s="3"/>
@@ -1035,7 +1016,7 @@
       <c r="E64" s="4"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="5"/>
       <c r="C65" s="3"/>
@@ -1043,7 +1024,7 @@
       <c r="E65" s="4"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="5"/>
       <c r="C66" s="3"/>
@@ -1051,7 +1032,7 @@
       <c r="E66" s="4"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="5"/>
       <c r="C67" s="3"/>
@@ -1059,7 +1040,7 @@
       <c r="E67" s="4"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="5"/>
       <c r="C68" s="3"/>
@@ -1067,16 +1048,16 @@
       <c r="E68" s="4"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -1086,26 +1067,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
